--- a/iselUssSyncV2/OutputWSL/20220427_1323_D50L474W90Q35U0.44H101G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220427_1323_D50L474W90Q35U0.44H101G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>101.264126984127</v>
+        <v>101.26505775114794</v>
       </c>
       <c r="F2" s="0">
-        <v>101.23531746031745</v>
+        <v>101.23624822733845</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>101.7432806324111</v>
+        <v>101.74555584068456</v>
       </c>
       <c r="F3" s="0">
-        <v>103.01079051383401</v>
+        <v>103.0130657221075</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>100.63450592885374</v>
+        <v>100.63725686249352</v>
       </c>
       <c r="F4" s="0">
-        <v>104.76181818181819</v>
+        <v>104.76456911545795</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>99.677529880478119</v>
+        <v>99.680335970682066</v>
       </c>
       <c r="F5" s="0">
-        <v>105.29529880478088</v>
+        <v>105.29810489498485</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>98.518055555555534</v>
+        <v>98.520909907753207</v>
       </c>
       <c r="F6" s="0">
-        <v>106.09503968253968</v>
+        <v>106.09789403473734</v>
       </c>
     </row>
     <row r="7">
@@ -222,10 +222,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>96.147529880478103</v>
+        <v>96.150425600098913</v>
       </c>
       <c r="F7" s="0">
-        <v>105.63764940239045</v>
+        <v>105.64054512201122</v>
       </c>
     </row>
     <row r="8">
@@ -242,10 +242,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>91.775476190476184</v>
+        <v>91.778406382949626</v>
       </c>
       <c r="F8" s="0">
-        <v>101.09182539682537</v>
+        <v>101.09475558929884</v>
       </c>
     </row>
     <row r="9">
@@ -262,7 +262,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>89.29880478087648</v>
+        <v>89.301746832011233</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -280,7 +280,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>86.344860557768911</v>
+        <v>86.347813364433691</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -298,7 +298,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>82.946494023904378</v>
+        <v>82.949456482967875</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -316,7 +316,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>81.257857142857148</v>
+        <v>81.260824014445774</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -334,7 +334,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>79.176812749004</v>
+        <v>79.179783757334945</v>
       </c>
       <c r="F13" s="0"/>
     </row>
@@ -352,7 +352,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>77.570677290836656</v>
+        <v>77.573652160127082</v>
       </c>
       <c r="F14" s="0"/>
     </row>
@@ -370,7 +370,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>75.673015873015899</v>
+        <v>75.675994327482982</v>
       </c>
       <c r="F15" s="0"/>
     </row>
@@ -388,7 +388,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>71.928134920634918</v>
+        <v>71.931119718106913</v>
       </c>
       <c r="F16" s="0"/>
     </row>
@@ -406,10 +406,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>68.139003984063748</v>
+        <v>68.141994021409346</v>
       </c>
       <c r="F17" s="0">
-        <v>33.806693227091628</v>
+        <v>33.809683264437226</v>
       </c>
     </row>
     <row r="18">
@@ -426,10 +426,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>64.809841269841272</v>
+        <v>64.812835443929174</v>
       </c>
       <c r="F18" s="0">
-        <v>33.292857142857137</v>
+        <v>33.295851316945047</v>
       </c>
     </row>
     <row r="19">
@@ -446,10 +446,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>58.848769841269856</v>
+        <v>58.851768979448522</v>
       </c>
       <c r="F19" s="0">
-        <v>32.986587301587306</v>
+        <v>32.989586439765986</v>
       </c>
     </row>
     <row r="20">
@@ -466,10 +466,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>52.336175298804775</v>
+        <v>52.33917443698347</v>
       </c>
       <c r="F20" s="0">
-        <v>34.395179282868533</v>
+        <v>34.398178421047213</v>
       </c>
     </row>
     <row r="21">
@@ -486,10 +486,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>47.012738095238113</v>
+        <v>47.015730338846254</v>
       </c>
       <c r="F21" s="0">
-        <v>39.178253968253969</v>
+        <v>39.181246211862138</v>
       </c>
     </row>
     <row r="22">
@@ -506,10 +506,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>42.624444444444443</v>
+        <v>42.627422898911547</v>
       </c>
       <c r="F22" s="0">
-        <v>52.829246031746038</v>
+        <v>52.832224486213143</v>
       </c>
     </row>
     <row r="23">
@@ -526,10 +526,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>39.367341269841262</v>
+        <v>39.370299040596791</v>
       </c>
       <c r="F23" s="0">
-        <v>68.396388888888893</v>
+        <v>68.399346659644422</v>
       </c>
     </row>
     <row r="24">
@@ -546,10 +546,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>36.418366533864535</v>
+        <v>36.421262253485338</v>
       </c>
       <c r="F24" s="0">
-        <v>70.251912350597607</v>
+        <v>70.254808070218388</v>
       </c>
     </row>
     <row r="25">
@@ -566,10 +566,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>39.974940239043839</v>
+        <v>39.977746329247779</v>
       </c>
       <c r="F25" s="0">
-        <v>52.551752988047802</v>
+        <v>52.554559078251756</v>
       </c>
     </row>
     <row r="26">
@@ -586,10 +586,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>57.330478087649404</v>
+        <v>57.33316697015443</v>
       </c>
       <c r="F26" s="0">
-        <v>50.687529880478088</v>
+        <v>50.690218762983115</v>
       </c>
     </row>
     <row r="27">
@@ -606,10 +606,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>76.778406374501984</v>
+        <v>76.780950471025974</v>
       </c>
       <c r="F27" s="0">
-        <v>51.525458167330683</v>
+        <v>51.528002263854681</v>
       </c>
     </row>
     <row r="28">
@@ -626,10 +626,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>51.328492063492064</v>
+        <v>51.330863795752904</v>
       </c>
       <c r="F28" s="0">
-        <v>54.954285714285724</v>
+        <v>54.956657446546572</v>
       </c>
     </row>
     <row r="29">
@@ -646,10 +646,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>53.871111111111112</v>
+        <v>53.873282900826702</v>
       </c>
       <c r="F29" s="0">
-        <v>70.263015873015874</v>
+        <v>70.265187662731492</v>
       </c>
     </row>
     <row r="30">
@@ -666,10 +666,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>70.783214285714266</v>
+        <v>70.784903455493065</v>
       </c>
       <c r="F30" s="0">
-        <v>58.397182539682554</v>
+        <v>58.398871709461332</v>
       </c>
     </row>
   </sheetData>
